--- a/@DataTable/DataTable_1000_Student.xlsx
+++ b/@DataTable/DataTable_1000_Student.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BD127-4A4D-42A6-B7EF-6C0134760859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4990C20-A536-46AC-B599-B669F86069CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/@DataTable/DataTable_1000_Student.xlsx
+++ b/@DataTable/DataTable_1000_Student.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4990C20-A536-46AC-B599-B669F86069CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD8B9E-3F2B-4B06-9F98-444F6DC8308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12960" yWindow="3645" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마코토2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Defense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +138,67 @@
   </si>
   <si>
     <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_1000_Student.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시로코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노노미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아야네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 200</t>
+  </si>
+  <si>
+    <t>6, 480</t>
+  </si>
+  <si>
+    <t>6, 490</t>
+  </si>
+  <si>
+    <t>사츠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이로하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이부키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:U4" totalsRowShown="0">
-  <autoFilter ref="A2:U4" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:U12" totalsRowShown="0">
+  <autoFilter ref="A2:U12" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -508,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -600,13 +657,13 @@
         <v>17</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
         <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -614,13 +671,13 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>4001</v>
@@ -665,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>22</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -679,13 +736,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>4001</v>
@@ -730,13 +787,538 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
         <v>21</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>22</v>
       </c>
-      <c r="U4" t="s">
-        <v>23</v>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>4001</v>
+      </c>
+      <c r="F5">
+        <v>5001</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>4001</v>
+      </c>
+      <c r="F6">
+        <v>5001</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>4001</v>
+      </c>
+      <c r="F7">
+        <v>5001</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>4001</v>
+      </c>
+      <c r="F8">
+        <v>5001</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>4001</v>
+      </c>
+      <c r="F9">
+        <v>5001</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>4001</v>
+      </c>
+      <c r="F10">
+        <v>5001</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>4001</v>
+      </c>
+      <c r="F11">
+        <v>5001</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>4001</v>
+      </c>
+      <c r="F12">
+        <v>5001</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
